--- a/ensemble_AD/log/实验结果.xlsx
+++ b/ensemble_AD/log/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Yukina\Missile_Fault_Detection\project\ensemble_AD\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF75166-DD63-4223-A55D-8A4D23419300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270B7FBA-2A40-4697-A958-EBA3A79BB488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="660" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2145" windowWidth="21600" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>class</t>
   </si>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_mean+var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_mean+std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,7 +812,7 @@
         <v>0.86822533977777783</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -830,7 +846,7 @@
         <v>0.96248437600000003</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,7 +869,7 @@
         <v>0.93328348699999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,7 +892,7 @@
         <v>0.84278323600000005</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,7 +915,7 @@
         <v>0.77153485499999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,7 +938,7 @@
         <v>0.97388672600000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,7 +961,7 @@
         <v>0.98483552900000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,7 +984,7 @@
         <v>0.940905977</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>0.925470291</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>0.99265549099999995</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,6 +1065,550 @@
       <c r="J27" s="3">
         <f>AVERAGE(G27:I27)</f>
         <v>0.8544285784074076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>0.75386159794277496</v>
+      </c>
+      <c r="C33">
+        <v>0.76418323700000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.93448717299566997</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.69251683161355404</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.74400961072881699</v>
+      </c>
+      <c r="I33">
+        <v>0.92821345200000005</v>
+      </c>
+      <c r="L33">
+        <v>0.77466994300000003</v>
+      </c>
+      <c r="M33">
+        <v>0.774339946</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.92954221005826598</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>0.85772751474004605</v>
+      </c>
+      <c r="C34">
+        <v>0.96200961200000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.83100581202830603</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.76340536570778295</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.95495858209044004</v>
+      </c>
+      <c r="I34">
+        <v>0.77381060199999996</v>
+      </c>
+      <c r="L34">
+        <v>0.88509263100000002</v>
+      </c>
+      <c r="M34">
+        <v>0.95890246800000001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.83962762641980104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>0.38088556118869199</v>
+      </c>
+      <c r="C35">
+        <v>0.58305560400000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.56810158157145096</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.40458298642658203</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.58398304899104603</v>
+      </c>
+      <c r="I35">
+        <v>0.57389096799999995</v>
+      </c>
+      <c r="L35">
+        <v>0.36864547199999997</v>
+      </c>
+      <c r="M35">
+        <v>0.58784253600000003</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.53551840922979399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>0.66824537278787399</v>
+      </c>
+      <c r="C36">
+        <v>0.99296835000000006</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.77308739477102095</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.34701290462635698</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.99041307065461903</v>
+      </c>
+      <c r="I36">
+        <v>0.77047376099999998</v>
+      </c>
+      <c r="L36">
+        <v>0.82347008300000002</v>
+      </c>
+      <c r="M36">
+        <v>0.99324836299999997</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.771247269410545</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>0.98104688158097897</v>
+      </c>
+      <c r="C37">
+        <v>0.96842507899999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.80782079174717603</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.94063221894454696</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.89526798002429997</v>
+      </c>
+      <c r="I37">
+        <v>0.81756281200000003</v>
+      </c>
+      <c r="L37">
+        <v>0.98216086999999996</v>
+      </c>
+      <c r="M37">
+        <v>0.97252335599999995</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.75939459580567503</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>0.97706005417775799</v>
+      </c>
+      <c r="C38">
+        <v>0.88191883500000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.90558471730995904</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.95849943761497203</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.82261382334023303</v>
+      </c>
+      <c r="I38">
+        <v>0.85988980599999998</v>
+      </c>
+      <c r="L38">
+        <v>0.97793778099999995</v>
+      </c>
+      <c r="M38">
+        <v>0.90278285599999997</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.91172331314921595</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>0.92072574818178798</v>
+      </c>
+      <c r="C39">
+        <v>0.75300941499999996</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.60519362157800904</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.95942624403521004</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.62821622040111902</v>
+      </c>
+      <c r="I39">
+        <v>0.63441017200000005</v>
+      </c>
+      <c r="L39">
+        <v>0.91198400099999999</v>
+      </c>
+      <c r="M39">
+        <v>0.76090387599999998</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.60247182744359795</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>0.82664514243609699</v>
+      </c>
+      <c r="C40">
+        <v>0.89065804900000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.78393282665479402</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.72013630784010496</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.837250680941656</v>
+      </c>
+      <c r="I40">
+        <v>0.74445331999999997</v>
+      </c>
+      <c r="L40">
+        <v>0.85081463099999999</v>
+      </c>
+      <c r="M40">
+        <v>0.90394469</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.79833299893937504</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>0.81218576792664998</v>
+      </c>
+      <c r="C41">
+        <v>0.88675945899999997</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.98653964239493497</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.635144811943683</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.86422391597625103</v>
+      </c>
+      <c r="I41">
+        <v>0.98336008900000005</v>
+      </c>
+      <c r="L41">
+        <v>0.84808141599999998</v>
+      </c>
+      <c r="M41">
+        <v>0.89366195299999995</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.98425891156930301</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <f>AVERAGE(B33:B41)</f>
+        <v>0.79759818232918422</v>
+      </c>
+      <c r="C42" s="2">
+        <f>AVERAGE(C33:C41)</f>
+        <v>0.85366529333333341</v>
+      </c>
+      <c r="D42" s="2">
+        <f>AVERAGE(D33:D41)</f>
+        <v>0.79952817345014682</v>
+      </c>
+      <c r="E42" s="3">
+        <f>AVERAGE(B42:D42)</f>
+        <v>0.81693054970422141</v>
+      </c>
+      <c r="G42" s="2">
+        <f>AVERAGE(G33:G41)</f>
+        <v>0.71348412319475474</v>
+      </c>
+      <c r="H42" s="2">
+        <f>AVERAGE(H33:H41)</f>
+        <v>0.81343743701649796</v>
+      </c>
+      <c r="I42" s="2">
+        <f>AVERAGE(I33:I41)</f>
+        <v>0.78734055355555554</v>
+      </c>
+      <c r="J42" s="3">
+        <f>AVERAGE(G42:I42)</f>
+        <v>0.77142070458893608</v>
+      </c>
+      <c r="L42" s="2">
+        <f>AVERAGE(L33:L41)</f>
+        <v>0.82476186977777788</v>
+      </c>
+      <c r="M42" s="2">
+        <f>AVERAGE(M33:M41)</f>
+        <v>0.86090556044444433</v>
+      </c>
+      <c r="N42" s="2">
+        <f>AVERAGE(N33:N41)</f>
+        <v>0.79245746244728588</v>
+      </c>
+      <c r="O42" s="3">
+        <f>AVERAGE(L42:N42)</f>
+        <v>0.82604163088983606</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0.73877492914944098</v>
+      </c>
+      <c r="C48">
+        <v>0.76096850999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.93595419800000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.73877492914944098</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.76096851003548005</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.93595419800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>0.82069281624043899</v>
+      </c>
+      <c r="C49">
+        <v>0.96581860799999997</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.80948354300000003</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.82069281624043899</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.96581860766370897</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.80948354300000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>0.39346559601139403</v>
+      </c>
+      <c r="C50">
+        <v>0.573253452</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.56903442800000004</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.39346559601139403</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.57325345155376495</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.56903442800000004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>0.53735541217219696</v>
+      </c>
+      <c r="C51">
+        <v>0.99235314500000005</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.77420278600000003</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.53735541217219696</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.99235314478638903</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.77420278600000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>0.97620988114512697</v>
+      </c>
+      <c r="C52">
+        <v>0.94581705000000005</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.82548993400000004</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.97620988114512697</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.94581705018116802</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.82548993400000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>0.973876845244244</v>
+      </c>
+      <c r="C53">
+        <v>0.85529101200000002</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.88803789300000002</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.973876845244244</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.855291012445763</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.88803789300000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0.93334304702896298</v>
+      </c>
+      <c r="C54">
+        <v>0.69991384400000001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.61088511599999995</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.93334304702896298</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.69991384363988696</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.61088511599999995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>0.78879219630721897</v>
+      </c>
+      <c r="C55">
+        <v>0.86537781899999999</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.77452609500000003</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.78879219630721897</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.86537781906926003</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.77452609500000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>0.75803715744951405</v>
+      </c>
+      <c r="C56">
+        <v>0.87254464499999995</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.98665576499999996</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.75803715744951405</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.87254464466840198</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.98665576499999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <f>AVERAGE(B48:B56)</f>
+        <v>0.76894976452761521</v>
+      </c>
+      <c r="C57" s="2">
+        <f>AVERAGE(C48:C56)</f>
+        <v>0.8368153427777778</v>
+      </c>
+      <c r="D57" s="2">
+        <f>AVERAGE(D48:D56)</f>
+        <v>0.7971410842222223</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(B57:D57)</f>
+        <v>0.80096873050920514</v>
+      </c>
+      <c r="G57" s="2">
+        <f>AVERAGE(G48:G56)</f>
+        <v>0.76894976452761521</v>
+      </c>
+      <c r="H57" s="2">
+        <f>AVERAGE(H48:H56)</f>
+        <v>0.8368153426715359</v>
+      </c>
+      <c r="I57" s="2">
+        <f>AVERAGE(I48:I56)</f>
+        <v>0.7971410842222223</v>
+      </c>
+      <c r="J57" s="3">
+        <f>AVERAGE(G57:I57)</f>
+        <v>0.80096873047379125</v>
       </c>
     </row>
   </sheetData>
